--- a/split_thoughts.xlsx
+++ b/split_thoughts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,8 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -95,79 +113,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>750</c:v>
+                  <c:v>1350</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>797</c:v>
+                  <c:v>1303</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>844</c:v>
+                  <c:v>1256</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>890</c:v>
+                  <c:v>1209</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>935</c:v>
+                  <c:v>1163</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>978</c:v>
+                  <c:v>1118</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1020</c:v>
+                  <c:v>1073</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1061</c:v>
+                  <c:v>1029</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1101</c:v>
+                  <c:v>986</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1139</c:v>
+                  <c:v>944</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1176</c:v>
+                  <c:v>903</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1212</c:v>
+                  <c:v>864</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1247</c:v>
+                  <c:v>826</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1281</c:v>
+                  <c:v>789</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1314</c:v>
+                  <c:v>754</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1346</c:v>
+                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1378</c:v>
+                  <c:v>687</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1409</c:v>
+                  <c:v>655</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1440</c:v>
+                  <c:v>624</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1470</c:v>
+                  <c:v>594</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1499</c:v>
+                  <c:v>565</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1528</c:v>
+                  <c:v>537</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1557</c:v>
+                  <c:v>509</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1585</c:v>
+                  <c:v>482</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1613</c:v>
+                  <c:v>455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -187,79 +205,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>1350</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1353</c:v>
+                  <c:v>747</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1356</c:v>
+                  <c:v>744</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1360</c:v>
+                  <c:v>741</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1365</c:v>
+                  <c:v>737</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1372</c:v>
+                  <c:v>732</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1380</c:v>
+                  <c:v>727</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1389</c:v>
+                  <c:v>721</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1399</c:v>
+                  <c:v>714</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1411</c:v>
+                  <c:v>706</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1424</c:v>
+                  <c:v>697</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1438</c:v>
+                  <c:v>686</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1453</c:v>
+                  <c:v>674</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1469</c:v>
+                  <c:v>661</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1486</c:v>
+                  <c:v>646</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1504</c:v>
+                  <c:v>630</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1522</c:v>
+                  <c:v>613</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1541</c:v>
+                  <c:v>595</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1560</c:v>
+                  <c:v>576</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1580</c:v>
+                  <c:v>556</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1601</c:v>
+                  <c:v>535</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1622</c:v>
+                  <c:v>513</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1643</c:v>
+                  <c:v>491</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1665</c:v>
+                  <c:v>468</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1687</c:v>
+                  <c:v>445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -276,11 +294,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="219753088"/>
-        <c:axId val="243900800"/>
+        <c:axId val="179885952"/>
+        <c:axId val="179887488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="219753088"/>
+        <c:axId val="179885952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -289,7 +307,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="243900800"/>
+        <c:crossAx val="179887488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -297,7 +315,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243900800"/>
+        <c:axId val="179887488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -308,7 +326,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219753088"/>
+        <c:crossAx val="179885952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -366,76 +384,76 @@
                   <c:v>1350</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1353</c:v>
+                  <c:v>1303</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1335.9295999999999</c:v>
+                  <c:v>1235.9295999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1323.81</c:v>
+                  <c:v>1172.1215999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1316.41</c:v>
+                  <c:v>1113.3283999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1314.7123999999999</c:v>
+                  <c:v>1059.0963999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1316.6399999999999</c:v>
+                  <c:v>1007.7444</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1321.8255999999999</c:v>
+                  <c:v>960.37760000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1329.9236000000001</c:v>
+                  <c:v>916.5856</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1341.5855999999999</c:v>
+                  <c:v>875.9796</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1355.3535999999999</c:v>
+                  <c:v>838.19240000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1370.9684</c:v>
+                  <c:v>803.51559999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1388.1923999999999</c:v>
+                  <c:v>770.79359999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1406.8096</c:v>
+                  <c:v>739.74559999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1426.6256000000001</c:v>
+                  <c:v>710.49760000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1447.4675999999999</c:v>
+                  <c:v>682.29</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1468.6623999999999</c:v>
+                  <c:v>654.92840000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1490.6815999999999</c:v>
+                  <c:v>628.24</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1512.96</c:v>
+                  <c:v>602.07360000000006</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1535.89</c:v>
+                  <c:v>576.29960000000005</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1559.3635999999999</c:v>
+                  <c:v>550.80999999999995</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1582.9523999999999</c:v>
+                  <c:v>525.51840000000004</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1606.6564000000001</c:v>
+                  <c:v>500.29160000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1630.76</c:v>
+                  <c:v>475.1764</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1654.9284</c:v>
+                  <c:v>450.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -452,11 +470,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="215872640"/>
-        <c:axId val="215874176"/>
+        <c:axId val="181238784"/>
+        <c:axId val="181240576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="215872640"/>
+        <c:axId val="181238784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -465,7 +483,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215874176"/>
+        <c:crossAx val="181240576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -473,7 +491,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215874176"/>
+        <c:axId val="181240576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1200"/>
@@ -485,7 +503,722 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215872640"/>
+        <c:crossAx val="181238784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$J$2:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>873</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1035</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1079</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1173</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1219</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1264</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1306</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1346</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1383</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1418</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1451</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1482</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1511</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1539</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1567</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1594</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1620</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1646</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$K$2:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1352</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1377</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1388</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1407</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1415</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1421</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1425</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1427</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1431</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1436</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1444</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1454</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1467</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1482</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1499</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1518</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1539</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1561</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1583</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1606</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1630</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1654</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="149987328"/>
+        <c:axId val="149988864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="149987328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="149988864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="149988864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="149987328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$M$3:$M$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.2244000000000597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5855999999998858</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8043999999999869</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30400000000008731</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10599999999999454</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2319999999999709</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7036000000000513</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.30759999999986576</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.73240000000009786</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0643999999999778</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.3851999999999407</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.176000000000158</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.513999999999896</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.357999999999947</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.852800000000116</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.336000000000013</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23.387199999999893</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.092800000000125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.539199999999937</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.730000000000018</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24.794799999999896</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24.899200000000064</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24.960399999999936</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.967600000000175</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="190807040"/>
+        <c:axId val="190821120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="190807040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="190821120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="190821120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="190807040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$D$1:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1045</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1043</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1085</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1118</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1156</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1141</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1174</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1185</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1164</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1169</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1195</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1171</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1197</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1173</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1198</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1173</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1198</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1173</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1198</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1173</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1198</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$E$1:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1355</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1307</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1310</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1265</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1272</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1232</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1244</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1209</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1226</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1195</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1215</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1186</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1208</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1181</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1205</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1179</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1203</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1177</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1202</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1177</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1202</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1177</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1202</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1177</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1202</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1177</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="196326144"/>
+        <c:axId val="192049152"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="196326144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="192049152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="192049152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="196326144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -511,16 +1244,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -541,16 +1274,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -564,6 +1297,101 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -859,540 +1687,1206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E1">
         <v>5</v>
       </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
       <c r="H1">
         <v>0.03</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2">
+        <v>1350</v>
+      </c>
+      <c r="C2">
         <v>750</v>
-      </c>
-      <c r="C2">
-        <v>1350</v>
       </c>
       <c r="D2">
         <f>MIN(MIN(B2:C2)+ABS(B2-C2)*0.5+(ABS(B2-C2)*$H$1)^2,MAX(B2,C2))</f>
         <v>1350</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>70</v>
+      </c>
+      <c r="J2">
+        <v>750</v>
+      </c>
+      <c r="K2">
+        <v>1350</v>
+      </c>
+      <c r="L2">
+        <f>MIN(MIN(J2:K2)+ABS(J2-K2)*0.5+(ABS(J2-K2)*$H$1)^2,MAX(J2,K2))</f>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>50</v>
+        <v>-50</v>
       </c>
       <c r="B3">
-        <f>ROUND(B2+(C2^$E$1*$A3/(ABS($B2^$E$1+$C2^$E$1))),0)</f>
-        <v>797</v>
+        <f>ROUND(B2+((1-F3)*$A3),0)</f>
+        <v>1303</v>
       </c>
       <c r="C3">
-        <f>ROUND(C2+(B2^$E$1*$A3/(ABS($B2^$E$1+$C2^$E$1))),0)</f>
-        <v>1353</v>
+        <f>ROUND(C2+($A3*F3),0)</f>
+        <v>747</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D26" si="0">MIN(MIN(B3:C3)+ABS(B3-C3)*0.5+(ABS(B3-C3)*$H$1)^2,MAX(B3,C3))</f>
-        <v>1353</v>
+        <v>1303</v>
       </c>
       <c r="E3">
         <f>D3-D2</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-47</v>
+      </c>
+      <c r="F3">
+        <f>1-(B2^$E$1/(ABS($B2^$E$1+$C2^$E$1)))</f>
+        <v>5.0262167465500052E-2</v>
+      </c>
+      <c r="G3">
+        <f>1/(1+$G$1^((K2-J2)/$G$2))</f>
+        <v>2.6218193076584608E-3</v>
+      </c>
+      <c r="I3">
+        <v>50</v>
+      </c>
+      <c r="J3">
+        <v>798</v>
+      </c>
+      <c r="K3">
+        <v>1352</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L26" si="1">MIN(MIN(J3:K3)+ABS(J3-K3)*0.5+(ABS(J3-K3)*$H$1)^2,MAX(J3,K3))</f>
+        <v>1351.2244000000001</v>
+      </c>
+      <c r="M3">
+        <f>L3-L2</f>
+        <v>1.2244000000000597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>-50</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B26" si="2">ROUND(B3+((1-F4)*$A4),0)</f>
+        <v>1256</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C26" si="3">ROUND(C3+($A4*F4),0)</f>
+        <v>744</v>
+      </c>
+      <c r="D4">
+        <f>MIN(MIN(B4:C4)+ABS(B4-C4)*0.5+(ABS(B4-C4)*$H$1)^2,MAX(B4,C4))</f>
+        <v>1235.9295999999999</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E26" si="4">D4-D3</f>
+        <v>-67.070400000000063</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F26" si="5">1-(B3^$E$1/(ABS($B3^$E$1+$C3^$E$1)))</f>
+        <v>5.8315797012718829E-2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G26" si="6">1/(1+$G$1^((K3-J3)/$G$2))</f>
+        <v>4.1282502749142745E-3</v>
+      </c>
+      <c r="I4">
         <v>50</v>
       </c>
-      <c r="B4">
-        <f t="shared" ref="B4:B26" si="1">ROUND(B3+(C3^$E$1*$A4/(ABS($B3^$E$1+$C3^$E$1))),0)</f>
-        <v>844</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ref="C4:C26" si="2">ROUND(C3+(B3^$E$1*$A4/(ABS($B3^$E$1+$C3^$E$1))),0)</f>
+      <c r="J4">
+        <v>835</v>
+      </c>
+      <c r="K4">
+        <v>1365</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>1352.81</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M26" si="7">L4-L3</f>
+        <v>1.5855999999998858</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-50</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>1209</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="3"/>
+        <v>741</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1172.1215999999999</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="4"/>
+        <v>-63.807999999999993</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="5"/>
+        <v>6.7974245254458943E-2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="6"/>
+        <v>5.2299266925367903E-3</v>
+      </c>
+      <c r="I5">
+        <v>50</v>
+      </c>
+      <c r="J5">
+        <v>873</v>
+      </c>
+      <c r="K5">
+        <v>1377</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>1353.6143999999999</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="7"/>
+        <v>0.8043999999999869</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-50</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="2"/>
+        <v>1163</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="3"/>
+        <v>737</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1113.3283999999999</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="4"/>
+        <v>-58.79320000000007</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="5"/>
+        <v>7.9603893233457401E-2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="6"/>
+        <v>6.7552327470545284E-3</v>
+      </c>
+      <c r="I6">
+        <v>50</v>
+      </c>
+      <c r="J6">
+        <v>912</v>
+      </c>
+      <c r="K6">
+        <v>1388</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>1353.9184</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="7"/>
+        <v>0.30400000000008731</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-50</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="2"/>
+        <v>1118</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="3"/>
+        <v>732</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1059.0963999999999</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="4"/>
+        <v>-54.231999999999971</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="5"/>
+        <v>9.2721313322261412E-2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="6"/>
+        <v>8.8943858484702241E-3</v>
+      </c>
+      <c r="I7">
+        <v>50</v>
+      </c>
+      <c r="J7">
+        <v>952</v>
+      </c>
+      <c r="K7">
+        <v>1398</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>1354.0244</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="7"/>
+        <v>0.10599999999999454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-50</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="2"/>
+        <v>1073</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="3"/>
+        <v>727</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1007.7444</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="4"/>
+        <v>-51.351999999999862</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="5"/>
+        <v>0.10739977676377988</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="6"/>
+        <v>1.1934239107437246E-2</v>
+      </c>
+      <c r="I8">
+        <v>50</v>
+      </c>
+      <c r="J8">
+        <v>993</v>
+      </c>
+      <c r="K8">
+        <v>1407</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>1354.2564</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="7"/>
+        <v>0.2319999999999709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-50</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="2"/>
+        <v>1029</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="3"/>
+        <v>721</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>960.37760000000003</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>-47.366800000000012</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="5"/>
+        <v>0.12494246080764515</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="6"/>
+        <v>1.6310993509339927E-2</v>
+      </c>
+      <c r="I9">
+        <v>50</v>
+      </c>
+      <c r="J9">
+        <v>1035</v>
+      </c>
+      <c r="K9">
+        <v>1415</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>1354.96</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="7"/>
+        <v>0.7036000000000513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-50</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="2"/>
+        <v>986</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="3"/>
+        <v>714</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>916.5856</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="4"/>
+        <v>-43.79200000000003</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="5"/>
+        <v>0.1444862284441859</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="6"/>
+        <v>2.2691787843609954E-2</v>
+      </c>
+      <c r="I10">
+        <v>50</v>
+      </c>
+      <c r="J10">
+        <v>1079</v>
+      </c>
+      <c r="K10">
+        <v>1421</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>1355.2675999999999</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="7"/>
+        <v>0.30759999999986576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-50</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="2"/>
+        <v>944</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="3"/>
+        <v>706</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>875.9796</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="4"/>
+        <v>-40.605999999999995</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="5"/>
+        <v>0.16605242882263849</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="6"/>
+        <v>3.2719443448806153E-2</v>
+      </c>
+      <c r="I11">
+        <v>50</v>
+      </c>
+      <c r="J11">
+        <v>1125</v>
+      </c>
+      <c r="K11">
+        <v>1425</v>
+      </c>
+      <c r="L11">
+        <f>MIN(MIN(J11:K11)+ABS(J11-K11)*0.5+(ABS(J11-K11)*$H$1)^2,MAX(J11,K11))</f>
         <v>1356</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>1335.9295999999999</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E26" si="3">D4-D3</f>
-        <v>-17.070400000000063</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="M11">
+        <f t="shared" si="7"/>
+        <v>0.73240000000009786</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-50</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="2"/>
+        <v>903</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="3"/>
+        <v>697</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>838.19240000000002</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="4"/>
+        <v>-37.787199999999984</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="5"/>
+        <v>0.1896087152631013</v>
+      </c>
+      <c r="G12">
+        <f>1/(1+$G$1^((K11-J11)/$G$2))</f>
+        <v>4.8770451875363052E-2</v>
+      </c>
+      <c r="I12">
         <v>50</v>
       </c>
-      <c r="B5">
-        <f t="shared" si="1"/>
-        <v>890</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="2"/>
-        <v>1360</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>1323.81</v>
-      </c>
-      <c r="E5">
+      <c r="J12">
+        <f>ROUND(J11+(IF(I12&lt;0,G12,1-G12)*$I12),0)</f>
+        <v>1173</v>
+      </c>
+      <c r="K12">
+        <f>ROUND(K11+(IF(I12&gt;0,G12,1-G12)*I12),0)</f>
+        <v>1427</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>1358.0644</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="7"/>
+        <v>2.0643999999999778</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-50</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="2"/>
+        <v>864</v>
+      </c>
+      <c r="C13">
         <f t="shared" si="3"/>
-        <v>-12.119599999999991</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
+        <v>686</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>803.51559999999995</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="4"/>
+        <v>-34.676800000000071</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="5"/>
+        <v>0.21506076124529672</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="6"/>
+        <v>7.4804013308579984E-2</v>
+      </c>
+      <c r="I13">
         <v>50</v>
       </c>
-      <c r="B6">
-        <f t="shared" si="1"/>
-        <v>935</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="2"/>
-        <v>1365</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>1316.41</v>
-      </c>
-      <c r="E6">
+      <c r="J13">
+        <f>ROUND(J12+(IF(I13&lt;0,G13,1-G13)*$I13),0)</f>
+        <v>1219</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13:K26" si="8">ROUND(K12+(IF(I13&gt;0,G13,1-G13)*I13),0)</f>
+        <v>1431</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>1365.4495999999999</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="7"/>
+        <v>7.3851999999999407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-50</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="2"/>
+        <v>826</v>
+      </c>
+      <c r="C14">
         <f t="shared" si="3"/>
-        <v>-7.3999999999998636</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
+        <v>674</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>770.79359999999997</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="4"/>
+        <v>-32.72199999999998</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="5"/>
+        <v>0.23985480401428017</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="6"/>
+        <v>0.10917015222641283</v>
+      </c>
+      <c r="I14">
         <v>50</v>
       </c>
-      <c r="B7">
-        <f t="shared" si="1"/>
-        <v>978</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="2"/>
-        <v>1372</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>1314.7123999999999</v>
-      </c>
-      <c r="E7">
+      <c r="J14">
+        <f t="shared" ref="J13:J26" si="9">ROUND(J13+(IF(I14&lt;0,G14,1-G14)*$I14),0)</f>
+        <v>1264</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="8"/>
+        <v>1436</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>1376.6256000000001</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="7"/>
+        <v>11.176000000000158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-50</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="2"/>
+        <v>789</v>
+      </c>
+      <c r="C15">
         <f t="shared" si="3"/>
-        <v>-1.6976000000001932</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+        <v>661</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>739.74559999999997</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="4"/>
+        <v>-31.048000000000002</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="5"/>
+        <v>0.26564664234588531</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="6"/>
+        <v>0.15405278720969798</v>
+      </c>
+      <c r="I15">
         <v>50</v>
       </c>
-      <c r="B8">
-        <f t="shared" si="1"/>
-        <v>1020</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="2"/>
-        <v>1380</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>1316.6399999999999</v>
-      </c>
-      <c r="E8">
+      <c r="J15">
+        <f t="shared" si="9"/>
+        <v>1306</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="8"/>
+        <v>1444</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>1392.1396</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="7"/>
+        <v>15.513999999999896</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-50</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="2"/>
+        <v>754</v>
+      </c>
+      <c r="C16">
         <f t="shared" si="3"/>
-        <v>1.927599999999984</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+        <v>646</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>710.49760000000003</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>-29.247999999999934</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>0.29212982368481488</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="6"/>
+        <v>0.20318750645556152</v>
+      </c>
+      <c r="I16">
         <v>50</v>
       </c>
-      <c r="B9">
-        <f t="shared" si="1"/>
-        <v>1061</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="2"/>
-        <v>1389</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>1321.8255999999999</v>
-      </c>
-      <c r="E9">
+      <c r="J16">
+        <f t="shared" si="9"/>
+        <v>1346</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="8"/>
+        <v>1454</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>1410.4975999999999</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="7"/>
+        <v>18.357999999999947</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-50</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
+      <c r="C17">
         <f t="shared" si="3"/>
-        <v>5.1856000000000222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+        <v>630</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>682.29</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="4"/>
+        <v>-28.20760000000007</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>0.31583821320042083</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="6"/>
+        <v>0.25551205325234777</v>
+      </c>
+      <c r="I17">
         <v>50</v>
       </c>
-      <c r="B10">
-        <f t="shared" si="1"/>
-        <v>1101</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="2"/>
-        <v>1399</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>1329.9236000000001</v>
-      </c>
-      <c r="E10">
+      <c r="J17">
+        <f t="shared" si="9"/>
+        <v>1383</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="8"/>
+        <v>1467</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>1431.3504</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="7"/>
+        <v>20.852800000000116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-50</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="2"/>
+        <v>687</v>
+      </c>
+      <c r="C18">
         <f t="shared" si="3"/>
-        <v>8.0980000000001837</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
+        <v>613</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>654.92840000000001</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="4"/>
+        <v>-27.361599999999953</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="5"/>
+        <v>0.33902168431669188</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="6"/>
+        <v>0.30326954502292758</v>
+      </c>
+      <c r="I18">
         <v>50</v>
       </c>
-      <c r="B11">
-        <f t="shared" si="1"/>
-        <v>1139</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="2"/>
-        <v>1411</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>1341.5855999999999</v>
-      </c>
-      <c r="E11">
+      <c r="J18">
+        <f t="shared" si="9"/>
+        <v>1418</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="8"/>
+        <v>1482</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>1453.6864</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="7"/>
+        <v>22.336000000000013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-50</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="2"/>
+        <v>655</v>
+      </c>
+      <c r="C19">
         <f t="shared" si="3"/>
-        <v>11.661999999999807</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
+        <v>595</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>628.24</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="4"/>
+        <v>-26.688400000000001</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="5"/>
+        <v>0.36127217998803263</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="6"/>
+        <v>0.34666421945958265</v>
+      </c>
+      <c r="I19">
         <v>50</v>
       </c>
-      <c r="B12">
-        <f t="shared" si="1"/>
-        <v>1176</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="2"/>
-        <v>1424</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>1355.3535999999999</v>
-      </c>
-      <c r="E12">
+      <c r="J19">
+        <f t="shared" si="9"/>
+        <v>1451</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="8"/>
+        <v>1499</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>1477.0735999999999</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="7"/>
+        <v>23.387199999999893</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-50</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="2"/>
+        <v>624</v>
+      </c>
+      <c r="C20">
         <f t="shared" si="3"/>
-        <v>13.768000000000029</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
+        <v>576</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>602.07360000000006</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="4"/>
+        <v>-26.166399999999953</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="5"/>
+        <v>0.38216495951779728</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="6"/>
+        <v>0.38336235589901901</v>
+      </c>
+      <c r="I20">
         <v>50</v>
       </c>
-      <c r="B13">
-        <f t="shared" si="1"/>
-        <v>1212</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="2"/>
-        <v>1438</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>1370.9684</v>
-      </c>
-      <c r="E13">
+      <c r="J20">
+        <f t="shared" si="9"/>
+        <v>1482</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="8"/>
+        <v>1518</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>1501.1664000000001</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="7"/>
+        <v>24.092800000000125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-50</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="2"/>
+        <v>594</v>
+      </c>
+      <c r="C21">
         <f t="shared" si="3"/>
-        <v>15.614800000000059</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
+        <v>556</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>576.29960000000005</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="4"/>
+        <v>-25.774000000000001</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="5"/>
+        <v>0.40126103608143515</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="6"/>
+        <v>0.41181296823779734</v>
+      </c>
+      <c r="I21">
         <v>50</v>
       </c>
-      <c r="B14">
-        <f t="shared" si="1"/>
-        <v>1247</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="2"/>
-        <v>1453</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>1388.1923999999999</v>
-      </c>
-      <c r="E14">
+      <c r="J21">
+        <f t="shared" si="9"/>
+        <v>1511</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="8"/>
+        <v>1539</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>1525.7056</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="7"/>
+        <v>24.539199999999937</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-50</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="2"/>
+        <v>565</v>
+      </c>
+      <c r="C22">
         <f t="shared" si="3"/>
-        <v>17.223999999999933</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
+        <v>535</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>550.80999999999995</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="4"/>
+        <v>-25.48960000000011</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="5"/>
+        <v>0.41810555869162147</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="6"/>
+        <v>0.43112592776921604</v>
+      </c>
+      <c r="I22">
         <v>50</v>
       </c>
-      <c r="B15">
-        <f t="shared" si="1"/>
-        <v>1281</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="2"/>
-        <v>1469</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>1406.8096</v>
-      </c>
-      <c r="E15">
+      <c r="J22">
+        <f t="shared" si="9"/>
+        <v>1539</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="8"/>
+        <v>1561</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>1550.4356</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="7"/>
+        <v>24.730000000000018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-50</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="2"/>
+        <v>537</v>
+      </c>
+      <c r="C23">
         <f t="shared" si="3"/>
-        <v>18.617200000000139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
+        <v>513</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>525.51840000000004</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="4"/>
+        <v>-25.291599999999903</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="5"/>
+        <v>0.43222107503046903</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="6"/>
+        <v>0.44575280039353149</v>
+      </c>
+      <c r="I23">
         <v>50</v>
       </c>
-      <c r="B16">
-        <f t="shared" si="1"/>
-        <v>1314</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="2"/>
-        <v>1486</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>1426.6256000000001</v>
-      </c>
-      <c r="E16">
+      <c r="J23">
+        <f t="shared" si="9"/>
+        <v>1567</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="8"/>
+        <v>1583</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>1575.2303999999999</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="7"/>
+        <v>24.794799999999896</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-50</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="2"/>
+        <v>509</v>
+      </c>
+      <c r="C24">
         <f t="shared" si="3"/>
-        <v>19.816000000000031</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
+        <v>491</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>500.29160000000002</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="4"/>
+        <v>-25.226800000000026</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="5"/>
+        <v>0.4430948095319992</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="6"/>
+        <v>0.46047423385563957</v>
+      </c>
+      <c r="I24">
         <v>50</v>
       </c>
-      <c r="B17">
-        <f t="shared" si="1"/>
-        <v>1346</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="2"/>
-        <v>1504</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>1447.4675999999999</v>
-      </c>
-      <c r="E17">
+      <c r="J24">
+        <f t="shared" si="9"/>
+        <v>1594</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="8"/>
+        <v>1606</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>1600.1296</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="7"/>
+        <v>24.899200000000064</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-50</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="2"/>
+        <v>482</v>
+      </c>
+      <c r="C25">
         <f t="shared" si="3"/>
-        <v>20.841999999999871</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
+        <v>468</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>475.1764</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="4"/>
+        <v>-25.115200000000016</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="5"/>
+        <v>0.45511628584763353</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="6"/>
+        <v>0.47032859600512805</v>
+      </c>
+      <c r="I25">
         <v>50</v>
       </c>
-      <c r="B18">
-        <f t="shared" si="1"/>
-        <v>1378</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="2"/>
-        <v>1522</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>1468.6623999999999</v>
-      </c>
-      <c r="E18">
+      <c r="J25">
+        <f t="shared" si="9"/>
+        <v>1620</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="8"/>
+        <v>1630</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>1625.09</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="7"/>
+        <v>24.960399999999936</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-50</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="2"/>
+        <v>455</v>
+      </c>
+      <c r="C26">
         <f t="shared" si="3"/>
-        <v>21.194799999999987</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
+        <v>445</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>450.09</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="4"/>
+        <v>-25.086400000000026</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="5"/>
+        <v>0.46322177366454986</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="6"/>
+        <v>0.47526495118259771</v>
+      </c>
+      <c r="I26">
         <v>50</v>
       </c>
-      <c r="B19">
-        <f t="shared" si="1"/>
-        <v>1409</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="2"/>
-        <v>1541</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>1490.6815999999999</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="3"/>
-        <v>22.019199999999955</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>50</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="1"/>
-        <v>1440</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="2"/>
-        <v>1560</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>1512.96</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="3"/>
-        <v>22.278400000000147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>50</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="1"/>
-        <v>1470</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="2"/>
-        <v>1580</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>1535.89</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="3"/>
-        <v>22.930000000000064</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>50</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="1"/>
-        <v>1499</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="2"/>
-        <v>1601</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>1559.3635999999999</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="3"/>
-        <v>23.473599999999806</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>50</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="1"/>
-        <v>1528</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="2"/>
-        <v>1622</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>1582.9523999999999</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="3"/>
-        <v>23.588799999999992</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>50</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="1"/>
-        <v>1557</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="2"/>
-        <v>1643</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>1606.6564000000001</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="3"/>
-        <v>23.704000000000178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>50</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="1"/>
-        <v>1585</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="2"/>
-        <v>1665</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>1630.76</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="3"/>
-        <v>24.103599999999915</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>50</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="1"/>
-        <v>1613</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="2"/>
-        <v>1687</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>1654.9284</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="3"/>
-        <v>24.16840000000002</v>
+      <c r="J26">
+        <f t="shared" si="9"/>
+        <v>1646</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="8"/>
+        <v>1654</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>1650.0576000000001</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="7"/>
+        <v>24.967600000000175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>-50</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:E26">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M27">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1411,13 +2905,1200 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>1045</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1355</v>
+      </c>
+      <c r="C1">
+        <f>B1-A1</f>
+        <v>310</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1045</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1355</v>
+      </c>
+      <c r="F1">
+        <f>E1-D1-C1</f>
+        <v>0</v>
+      </c>
+      <c r="H1" s="2">
+        <v>1045</v>
+      </c>
+      <c r="I1" s="2">
+        <v>1355</v>
+      </c>
+      <c r="J1">
+        <f>I1-H1-C1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1043</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1307</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C26" si="0">B2-A2</f>
+        <v>264</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1043</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1307</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F26" si="1">E2-D2-C2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1093</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1357</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J26" si="2">I2-H2-C2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1040</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1260</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1090</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1310</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1140</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1360</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1035</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1215</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1085</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1265</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1185</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1365</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1028</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1172</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1128</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1272</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1228</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1372</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1018</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1132</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1118</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1232</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1268</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1382</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1094</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1156</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1244</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1306</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1394</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>991</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1059</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1141</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1209</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1341</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1409</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>974</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1026</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1174</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1226</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1374</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1426</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>955</v>
+      </c>
+      <c r="B10" s="1">
+        <v>995</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1155</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1195</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1405</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1445</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>935</v>
+      </c>
+      <c r="B11" s="1">
+        <v>965</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1185</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1215</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1435</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1465</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>914</v>
+      </c>
+      <c r="B12" s="1">
+        <v>936</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1164</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1186</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1464</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1486</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>892</v>
+      </c>
+      <c r="B13" s="1">
+        <v>908</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1192</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1208</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1492</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1508</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>869</v>
+      </c>
+      <c r="B14" s="1">
+        <v>881</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1169</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1181</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1519</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1531</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>845</v>
+      </c>
+      <c r="B15" s="1">
+        <v>855</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1195</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1205</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1545</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1555</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>821</v>
+      </c>
+      <c r="B16" s="1">
+        <v>829</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1171</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1179</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1571</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1579</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>797</v>
+      </c>
+      <c r="B17" s="1">
+        <v>803</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1197</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1203</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1597</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1603</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>773</v>
+      </c>
+      <c r="B18" s="1">
+        <v>777</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1173</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1177</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1623</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1627</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>748</v>
+      </c>
+      <c r="B19" s="1">
+        <v>752</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1198</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1202</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1648</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1652</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>723</v>
+      </c>
+      <c r="B20" s="1">
+        <v>727</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1173</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1177</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1673</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1677</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>698</v>
+      </c>
+      <c r="B21" s="1">
+        <v>702</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1198</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1202</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1698</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1702</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>673</v>
+      </c>
+      <c r="B22" s="1">
+        <v>677</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1173</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1177</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1723</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1727</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>648</v>
+      </c>
+      <c r="B23" s="1">
+        <v>652</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1198</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1202</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1748</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1752</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>623</v>
+      </c>
+      <c r="B24" s="1">
+        <v>627</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1173</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1177</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1777</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>598</v>
+      </c>
+      <c r="B25" s="1">
+        <v>602</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1198</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1202</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1798</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1802</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>573</v>
+      </c>
+      <c r="B26" s="1">
+        <v>577</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1173</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1177</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1823</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1827</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D27" s="1">
+        <v>1198</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1202</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1848</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D28" s="1">
+        <v>1173</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1177</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1873</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D29" s="1">
+        <v>1198</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1202</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1898</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D30" s="1">
+        <v>1173</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1177</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1923</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D31" s="1">
+        <v>1198</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1202</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1948</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D32" s="1">
+        <v>1173</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1177</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1973</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D33" s="1">
+        <v>1198</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1202</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1998</v>
+      </c>
+      <c r="I33" s="2">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D34" s="1">
+        <v>1173</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1177</v>
+      </c>
+      <c r="H34" s="2">
+        <v>2023</v>
+      </c>
+      <c r="I34" s="2">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D35" s="1">
+        <v>1198</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1202</v>
+      </c>
+      <c r="H35" s="2">
+        <v>2048</v>
+      </c>
+      <c r="I35" s="2">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D36" s="1">
+        <v>1173</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1177</v>
+      </c>
+      <c r="H36" s="2">
+        <v>2073</v>
+      </c>
+      <c r="I36" s="2">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D37" s="1">
+        <v>1198</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1202</v>
+      </c>
+      <c r="H37" s="2">
+        <v>2098</v>
+      </c>
+      <c r="I37" s="2">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D38" s="1">
+        <v>1173</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1177</v>
+      </c>
+      <c r="H38" s="2">
+        <v>2123</v>
+      </c>
+      <c r="I38" s="2">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D39" s="1">
+        <v>1198</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1202</v>
+      </c>
+      <c r="H39" s="2">
+        <v>2148</v>
+      </c>
+      <c r="I39" s="2">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D40" s="1">
+        <v>1173</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1177</v>
+      </c>
+      <c r="H40" s="2">
+        <v>2173</v>
+      </c>
+      <c r="I40" s="2">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D41" s="1">
+        <v>1198</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1202</v>
+      </c>
+      <c r="H41" s="2">
+        <v>2198</v>
+      </c>
+      <c r="I41" s="2">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D42" s="1">
+        <v>1173</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1177</v>
+      </c>
+      <c r="H42" s="2">
+        <v>2223</v>
+      </c>
+      <c r="I42" s="2">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D43" s="1">
+        <v>1198</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1202</v>
+      </c>
+      <c r="H43" s="2">
+        <v>2248</v>
+      </c>
+      <c r="I43" s="2">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D44" s="1">
+        <v>1173</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1177</v>
+      </c>
+      <c r="H44" s="2">
+        <v>2273</v>
+      </c>
+      <c r="I44" s="2">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D45" s="1">
+        <v>1198</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1202</v>
+      </c>
+      <c r="H45" s="2">
+        <v>2298</v>
+      </c>
+      <c r="I45" s="2">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D46" s="1">
+        <v>1173</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1177</v>
+      </c>
+      <c r="H46" s="2">
+        <v>2323</v>
+      </c>
+      <c r="I46" s="2">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D47" s="1">
+        <v>1198</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1202</v>
+      </c>
+      <c r="H47" s="2">
+        <v>2348</v>
+      </c>
+      <c r="I47" s="2">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D48" s="1">
+        <v>1173</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1177</v>
+      </c>
+      <c r="H48" s="2">
+        <v>2373</v>
+      </c>
+      <c r="I48" s="2">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D49" s="1">
+        <v>1198</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1202</v>
+      </c>
+      <c r="H49" s="2">
+        <v>2398</v>
+      </c>
+      <c r="I49" s="2">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="50" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D50" s="1">
+        <v>1173</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1177</v>
+      </c>
+      <c r="H50" s="2">
+        <v>2423</v>
+      </c>
+      <c r="I50" s="2">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="51" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D51" s="1">
+        <v>1198</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1202</v>
+      </c>
+      <c r="H51" s="2">
+        <v>2448</v>
+      </c>
+      <c r="I51" s="2">
+        <v>2452</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
